--- a/old_database/crypto/library/library_159.xlsx
+++ b/old_database/crypto/library/library_159.xlsx
@@ -46,7 +46,7 @@
     <t>05.25.10</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_159</t>
   </si>
   <si>
     <t>06.01.10</t>

--- a/old_database/crypto/library/library_159.xlsx
+++ b/old_database/crypto/library/library_159.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t xml:space="preserve">s2cDNADate</t>
   </si>
@@ -43,10 +43,7 @@
     <t xml:space="preserve">index1Sequence</t>
   </si>
   <si>
-    <t xml:space="preserve">index2Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">index2Sequence</t>
+    <t xml:space="preserve">libraryProtocol</t>
   </si>
   <si>
     <t xml:space="preserve">05.25.10</t>
@@ -59,6 +56,9 @@
   </si>
   <si>
     <t xml:space="preserve">retrofit_index1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SolexaPrep</t>
   </si>
   <si>
     <t xml:space="preserve">retrofit_index2</t>
@@ -158,13 +158,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -187,7 +191,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -195,7 +199,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -220,48 +224,49 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="B2" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>2</v>
@@ -269,22 +274,25 @@
       <c r="G3" s="0" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>3</v>
@@ -292,28 +300,34 @@
       <c r="G4" s="0" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>15</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
